--- a/CAVS_DATA.xlsx
+++ b/CAVS_DATA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>JERSEY_NUMBER</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>PLAYER</t>
   </si>
@@ -132,18 +129,9 @@
     <t>Cedi_Osman</t>
   </si>
   <si>
-    <t>Kay_Felder</t>
-  </si>
-  <si>
-    <t>Kendrick_Perkins</t>
-  </si>
-  <si>
     <t>Lebron_James</t>
   </si>
   <si>
-    <t>Richard_Jefferson</t>
-  </si>
-  <si>
     <t>Kyle_Korver</t>
   </si>
   <si>
@@ -157,13 +145,34 @@
   </si>
   <si>
     <t>Jae_Crowder</t>
+  </si>
+  <si>
+    <t>Boston_Celtics</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +190,13 @@
     <font>
       <sz val="11"/>
       <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,10 +228,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,98 +548,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584D91A2-D429-41BF-B252-208BB302CF71}">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="24" width="8.7265625" style="3"/>
+    <col min="25" max="25" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
@@ -629,7 +647,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43025</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
@@ -637,7 +667,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43025</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
@@ -645,7 +687,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43025</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
@@ -653,7 +707,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43025</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
@@ -661,7 +727,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43025</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
@@ -669,7 +747,19 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43025</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
@@ -677,7 +767,19 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43025</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
@@ -685,7 +787,19 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43025</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
@@ -693,7 +807,19 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="4">
+        <v>43025</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.35">
@@ -701,79 +827,139 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C11" s="4">
+        <v>43025</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C12" s="4">
+        <v>43025</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C13" s="4">
+        <v>43025</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C14" s="4">
+        <v>43025</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C15" s="4">
+        <v>43025</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4">
+        <v>43025</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>99</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="C17" s="4">
+        <v>43025</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>81</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>99</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
